--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.259748666666667</v>
+        <v>3.710289666666667</v>
       </c>
       <c r="N2">
-        <v>24.779246</v>
+        <v>11.130869</v>
       </c>
       <c r="O2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="P2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="Q2">
-        <v>3.944966093182223</v>
+        <v>1.772083815328889</v>
       </c>
       <c r="R2">
-        <v>35.50469483864001</v>
+        <v>15.94875433796</v>
       </c>
       <c r="S2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="T2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>17.12906</v>
       </c>
       <c r="O3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="P3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="Q3">
         <v>2.727022481155556</v>
@@ -635,10 +635,10 @@
         <v>24.5432023304</v>
       </c>
       <c r="S3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="T3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.909174</v>
+        <v>2.323136666666667</v>
       </c>
       <c r="N4">
-        <v>5.727522</v>
+        <v>6.96941</v>
       </c>
       <c r="O4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="P4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="Q4">
-        <v>0.9118469580533335</v>
+        <v>1.109561047155556</v>
       </c>
       <c r="R4">
-        <v>8.206622622480001</v>
+        <v>9.986049424400001</v>
       </c>
       <c r="S4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="T4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.176559</v>
+        <v>3.589418666666667</v>
       </c>
       <c r="N5">
-        <v>12.529677</v>
+        <v>10.768256</v>
       </c>
       <c r="O5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="P5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="Q5">
-        <v>1.994780265853334</v>
+        <v>1.714354214115556</v>
       </c>
       <c r="R5">
-        <v>17.95302239268</v>
+        <v>15.42918792704</v>
       </c>
       <c r="S5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="T5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
     </row>
   </sheetData>
